--- a/output/VALUE/rebalance/rebalance_20250630.xlsx
+++ b/output/VALUE/rebalance/rebalance_20250630.xlsx
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02623070827019305</v>
+        <v>0.02622937808732662</v>
       </c>
       <c r="C2" t="n">
         <v>0.02791192341237051</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001681215142177454</v>
+        <v>0.001682545325043892</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0215856596184652</v>
+        <v>0.02158757017511296</v>
       </c>
       <c r="C3" t="n">
         <v>0.02556222342619029</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003976563807725087</v>
+        <v>0.003974653251077324</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01678603570551787</v>
+        <v>0.0167866168796687</v>
       </c>
       <c r="C4" t="n">
         <v>0.02553421505632643</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008748179350808565</v>
+        <v>0.008747598176657736</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02606532424917</v>
+        <v>0.02605943529043067</v>
       </c>
       <c r="C5" t="n">
         <v>0.02519677542483654</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0008685488243334663</v>
+        <v>-0.0008626598655941328</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02078002861931125</v>
+        <v>0.02077947592035969</v>
       </c>
       <c r="C6" t="n">
         <v>0.02420275947821728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003422730858906025</v>
+        <v>0.003423283557857586</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0218571863846875</v>
+        <v>0.02185661628757852</v>
       </c>
       <c r="C7" t="n">
         <v>0.02393528651593278</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002078100131245281</v>
+        <v>0.00207867022835426</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,17 +6408,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02383090062422522</v>
+        <v>0.0238406938375692</v>
       </c>
       <c r="C8" t="n">
         <v>0.02384022517037362</v>
       </c>
       <c r="D8" t="n">
-        <v>9.324546148402335e-06</v>
+        <v>-4.686671955730914e-07</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02715069304834098</v>
+        <v>0.02714895259575482</v>
       </c>
       <c r="C9" t="n">
         <v>0.02352768846372082</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.00362300458462016</v>
+        <v>-0.003621264132034004</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02843024502490447</v>
+        <v>0.02843516178537237</v>
       </c>
       <c r="C10" t="n">
         <v>0.02331143990067897</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.005118805124225502</v>
+        <v>-0.005123721884693396</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02583905135912536</v>
+        <v>0.02583860363529989</v>
       </c>
       <c r="C11" t="n">
         <v>0.02259913809167643</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.003239913267448925</v>
+        <v>-0.003239465543623456</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01789048859331847</v>
+        <v>0.01789409845308399</v>
       </c>
       <c r="C12" t="n">
         <v>0.02213884549435707</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0042483569010386</v>
+        <v>0.004244747041273082</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02266584572826749</v>
+        <v>0.02266384034492515</v>
       </c>
       <c r="C13" t="n">
         <v>0.02165997191612771</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001005873812139776</v>
+        <v>-0.00100386842879744</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01979889306627851</v>
+        <v>0.01979872920911947</v>
       </c>
       <c r="C14" t="n">
         <v>0.02151911260645589</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001720219540177377</v>
+        <v>0.00172038339733642</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02174779519398872</v>
+        <v>0.0217476355745864</v>
       </c>
       <c r="C15" t="n">
         <v>0.02150732858605043</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0002404666079382951</v>
+        <v>-0.0002403069885359745</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02253823978295977</v>
+        <v>0.02253838455609544</v>
       </c>
       <c r="C16" t="n">
         <v>0.02143944356945097</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.001098796213508807</v>
+        <v>-0.001098940986644474</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02231639462805549</v>
+        <v>0.02231321513623884</v>
       </c>
       <c r="C17" t="n">
         <v>0.02128986975090986</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.001026524877145621</v>
+        <v>-0.001023345385328972</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0210595459480583</v>
+        <v>0.02105851380441618</v>
       </c>
       <c r="C18" t="n">
         <v>0.02095763802554482</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0001019079225134806</v>
+        <v>-0.0001008757788713635</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01771805169790201</v>
+        <v>0.01771648250442956</v>
       </c>
       <c r="C19" t="n">
         <v>0.02085364192245603</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003135590224554018</v>
+        <v>0.003137159418026465</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.020477538053841</v>
+        <v>0.0204764603965024</v>
       </c>
       <c r="C20" t="n">
         <v>0.02070703167406606</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0002294936202250596</v>
+        <v>0.0002305712775636549</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0192214893124487</v>
+        <v>0.01922013135666526</v>
       </c>
       <c r="C22" t="n">
         <v>0.02017607061558115</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0009545813031324492</v>
+        <v>0.0009559392589158812</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01764458845632886</v>
+        <v>0.01765044268751855</v>
       </c>
       <c r="C23" t="n">
         <v>0.01961357485824985</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001968986401920989</v>
+        <v>0.001963132170731297</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0176996819339194</v>
+        <v>0.01769990186523402</v>
       </c>
       <c r="C24" t="n">
         <v>0.01921160282740718</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001511920893487787</v>
+        <v>0.001511700962173158</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02507234013510692</v>
+        <v>0.02506825476649711</v>
       </c>
       <c r="C25" t="n">
         <v>0.019154448173892</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.005917891961214925</v>
+        <v>-0.005913806592605111</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01881067406848295</v>
+        <v>0.01881061182403531</v>
       </c>
       <c r="C26" t="n">
         <v>0.01910093764906185</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0002902635805788999</v>
+        <v>0.0002903258250265377</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01854115147858897</v>
+        <v>0.01854075671877116</v>
       </c>
       <c r="C27" t="n">
         <v>0.01910071258669479</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0005595611081058161</v>
+        <v>0.0005599558679236297</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01701789654970305</v>
+        <v>0.01701669653655625</v>
       </c>
       <c r="C28" t="n">
         <v>0.01908737519973519</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002069478650032142</v>
+        <v>0.002070678663178945</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01992968379828562</v>
+        <v>0.01992875209285817</v>
       </c>
       <c r="C29" t="n">
         <v>0.01907209066509433</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0008575931331912846</v>
+        <v>-0.0008566614277638399</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.021781933223278</v>
+        <v>0.02178496341904712</v>
       </c>
       <c r="C30" t="n">
         <v>0.01902558395072547</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.002756349272552531</v>
+        <v>-0.002759379468321645</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01524400638132502</v>
+        <v>0.01524273460777207</v>
       </c>
       <c r="C31" t="n">
         <v>0.0187280919166882</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003484085535363179</v>
+        <v>0.003485357308916127</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01371534796160897</v>
+        <v>0.01371618833393503</v>
       </c>
       <c r="C32" t="n">
         <v>0.01839445059856894</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00467910263695997</v>
+        <v>0.004678262264633916</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01938073415229686</v>
+        <v>0.01939192825508445</v>
       </c>
       <c r="C33" t="n">
         <v>0.01836349007201854</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001017244080278319</v>
+        <v>-0.001028438183065909</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01610201370171073</v>
+        <v>0.01610187099805535</v>
       </c>
       <c r="C35" t="n">
         <v>0.01819006371264097</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00208805001093024</v>
+        <v>0.002088192714585619</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01646808608185009</v>
+        <v>0.0164661868978699</v>
       </c>
       <c r="C36" t="n">
         <v>0.01798437279024729</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001516286708397201</v>
+        <v>0.001518185892377396</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01849568110974087</v>
+        <v>0.01849344019922704</v>
       </c>
       <c r="C37" t="n">
         <v>0.01788311760511572</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0006125635046251472</v>
+        <v>-0.0006103225941113226</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01911414853206055</v>
+        <v>0.01911307012239137</v>
       </c>
       <c r="C39" t="n">
         <v>0.01743582835670874</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001678320175351817</v>
+        <v>-0.001677241765682638</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01924539338493471</v>
+        <v>0.01924235786210876</v>
       </c>
       <c r="C40" t="n">
         <v>0.01737037600156841</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.001875017383366297</v>
+        <v>-0.001871981860540349</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01781097865942926</v>
+        <v>0.01780999021948824</v>
       </c>
       <c r="C42" t="n">
         <v>0.01730866157931768</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0005023170801115757</v>
+        <v>-0.0005013286401705612</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0175634619817381</v>
+        <v>0.01756885733329184</v>
       </c>
       <c r="C43" t="n">
         <v>0.01720805111218376</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0003554108695543387</v>
+        <v>-0.000360806221108078</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02078718828299523</v>
+        <v>0.02078545632728807</v>
       </c>
       <c r="C48" t="n">
         <v>0.016939745962924</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.003847442320071223</v>
+        <v>-0.003845710364364065</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02038287371246476</v>
+        <v>0.02038033989980288</v>
       </c>
       <c r="C49" t="n">
         <v>0.01690203549084444</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.003480838221620316</v>
+        <v>-0.003478304408958442</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01916478445942319</v>
+        <v>0.01916219736871735</v>
       </c>
       <c r="C51" t="n">
         <v>0.01684326695086256</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.002321517508560633</v>
+        <v>-0.002318930417854789</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0152985144215002</v>
+        <v>0.0153000709362571</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0152985144215002</v>
+        <v>-0.0153000709362571</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01877556475963316</v>
+        <v>0.01877529778203213</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01877556475963316</v>
+        <v>-0.01877529778203213</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01731317845830233</v>
+        <v>0.01731110751832139</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01731317845830233</v>
+        <v>-0.01731110751832139</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0250293649633277</v>
+        <v>0.02502173464794561</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0250293649633277</v>
+        <v>-0.02502173464794561</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02077484541176832</v>
+        <v>0.02077165597007774</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02077484541176832</v>
+        <v>-0.02077165597007774</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01709750272816537</v>
+        <v>0.01709788369108303</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01709750272816537</v>
+        <v>-0.01709788369108303</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01821607338760139</v>
+        <v>0.01822269387674712</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01821607338760139</v>
+        <v>-0.01822269387674712</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0171786510070372</v>
+        <v>0.01718151397866441</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.0171786510070372</v>
+        <v>-0.01718151397866441</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01635354190833292</v>
+        <v>0.01635304743278534</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01635354190833292</v>
+        <v>-0.01635304743278534</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>

--- a/output/VALUE/rebalance/rebalance_20250630.xlsx
+++ b/output/VALUE/rebalance/rebalance_20250630.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20.76%</t>
+          <t>21.06%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02622937808732662</v>
+        <v>0.02678992631026096</v>
       </c>
       <c r="C2" t="n">
         <v>0.02791192341237051</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001682545325043892</v>
+        <v>0.001121997102109543</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02158757017511296</v>
+        <v>0.02060297634555693</v>
       </c>
       <c r="C3" t="n">
         <v>0.02556222342619029</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003974653251077324</v>
+        <v>0.004959247080633361</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0167866168796687</v>
+        <v>0.01584018207608241</v>
       </c>
       <c r="C4" t="n">
         <v>0.02553421505632643</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008747598176657736</v>
+        <v>0.009694032980244027</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02605943529043067</v>
+        <v>0.02662101643217212</v>
       </c>
       <c r="C5" t="n">
         <v>0.02519677542483654</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0008626598655941328</v>
+        <v>-0.00142424100733558</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02077947592035969</v>
+        <v>0.02122304246237436</v>
       </c>
       <c r="C6" t="n">
         <v>0.02420275947821728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003423283557857586</v>
+        <v>0.002979717015842917</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02185661628757852</v>
+        <v>0.0223231643829001</v>
       </c>
       <c r="C7" t="n">
         <v>0.02393528651593278</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00207867022835426</v>
+        <v>0.001612122133032679</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,17 +6408,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0238406938375692</v>
+        <v>0.02061652799050408</v>
       </c>
       <c r="C8" t="n">
         <v>0.02384022517037362</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.686671955730914e-07</v>
+        <v>0.00322369717986954</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02714895259575482</v>
+        <v>0.02660652189188116</v>
       </c>
       <c r="C9" t="n">
         <v>0.02352768846372082</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.003621264132034004</v>
+        <v>-0.003078833428160344</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02843516178537237</v>
+        <v>0.02796207169191447</v>
       </c>
       <c r="C10" t="n">
         <v>0.02331143990067897</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.005123721884693396</v>
+        <v>-0.004650631791235496</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02583860363529989</v>
+        <v>0.02638991958233239</v>
       </c>
       <c r="C11" t="n">
         <v>0.02259913809167643</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.003239465543623456</v>
+        <v>-0.003790781490655957</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01789409845308399</v>
+        <v>0.0167790974543147</v>
       </c>
       <c r="C12" t="n">
         <v>0.02213884549435707</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004244747041273082</v>
+        <v>0.00535974804004237</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02266384034492515</v>
+        <v>0.02314906370675592</v>
       </c>
       <c r="C13" t="n">
         <v>0.02165997191612771</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.00100386842879744</v>
+        <v>-0.00148909179062821</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01979872920911947</v>
+        <v>0.02022098987212875</v>
       </c>
       <c r="C14" t="n">
         <v>0.02151911260645589</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00172038339733642</v>
+        <v>0.001298122734327136</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0217476355745864</v>
+        <v>0.0222114410581761</v>
       </c>
       <c r="C15" t="n">
         <v>0.02150732858605043</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0002403069885359745</v>
+        <v>-0.0007041124721256682</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02253838455609544</v>
+        <v>0.02301873730320131</v>
       </c>
       <c r="C16" t="n">
         <v>0.02143944356945097</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.001098940986644474</v>
+        <v>-0.001579293733750344</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02231321513623884</v>
+        <v>0.02279216258432774</v>
       </c>
       <c r="C17" t="n">
         <v>0.02128986975090986</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.001023345385328972</v>
+        <v>-0.001502292833417872</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,17 +6618,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02105851380441618</v>
+        <v>0.0204863318445116</v>
       </c>
       <c r="C18" t="n">
         <v>0.02095763802554482</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0001008757788713635</v>
+        <v>0.0004713061810332174</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01771648250442956</v>
+        <v>0.01809578660472423</v>
       </c>
       <c r="C19" t="n">
         <v>0.02085364192245603</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003137159418026465</v>
+        <v>0.002757855317731799</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,17 +6660,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0204764603965024</v>
+        <v>0.02091410303630079</v>
       </c>
       <c r="C20" t="n">
         <v>0.02070703167406606</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0002305712775636549</v>
+        <v>-0.000207071362234728</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01922013135666526</v>
+        <v>0.01963127632505134</v>
       </c>
       <c r="C22" t="n">
         <v>0.02017607061558115</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0009559392589158812</v>
+        <v>0.0005447942905298028</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01765044268751855</v>
+        <v>0.01802075718470305</v>
       </c>
       <c r="C23" t="n">
         <v>0.01961357485824985</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001963132170731297</v>
+        <v>0.001592817673546798</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01769990186523402</v>
+        <v>0.01807702521184219</v>
       </c>
       <c r="C24" t="n">
         <v>0.01921160282740718</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001511700962173158</v>
+        <v>0.001134577615564993</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02506825476649711</v>
+        <v>0.02560686267890733</v>
       </c>
       <c r="C25" t="n">
         <v>0.019154448173892</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.005913806592605111</v>
+        <v>-0.006452414505015339</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,17 +6786,17 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01881061182403531</v>
+        <v>0.01921170282365715</v>
       </c>
       <c r="C26" t="n">
         <v>0.01910093764906185</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0002903258250265377</v>
+        <v>-0.0001107651745952988</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01854075671877116</v>
+        <v>0.01893643422443237</v>
       </c>
       <c r="C27" t="n">
         <v>0.01910071258669479</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0005599558679236297</v>
+        <v>0.0001642783622624149</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01701669653655625</v>
+        <v>0.01660130090201641</v>
       </c>
       <c r="C28" t="n">
         <v>0.01908737519973519</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002070678663178945</v>
+        <v>0.002486074297718778</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01992875209285817</v>
+        <v>0.02035456895952674</v>
       </c>
       <c r="C29" t="n">
         <v>0.01907209066509433</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0008566614277638399</v>
+        <v>-0.001282478294432402</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02178496341904712</v>
+        <v>0.02084816724548228</v>
       </c>
       <c r="C30" t="n">
         <v>0.01902558395072547</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.002759379468321645</v>
+        <v>-0.001822583294756808</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01524273460777207</v>
+        <v>0.01556899659064523</v>
       </c>
       <c r="C31" t="n">
         <v>0.0187280919166882</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003485357308916127</v>
+        <v>0.003159095326042971</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01371618833393503</v>
+        <v>0.0131683327443419</v>
       </c>
       <c r="C32" t="n">
         <v>0.01839445059856894</v>
       </c>
       <c r="D32" t="n">
-        <v>0.004678262264633916</v>
+        <v>0.00522611785422704</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01939192825508445</v>
+        <v>0.0183872418960448</v>
       </c>
       <c r="C33" t="n">
         <v>0.01836349007201854</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001028438183065909</v>
+        <v>-2.37518240262663e-05</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01610187099805535</v>
+        <v>0.016445295951304</v>
       </c>
       <c r="C35" t="n">
         <v>0.01819006371264097</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002088192714585619</v>
+        <v>0.001744767761336967</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0164661868978699</v>
+        <v>0.01639396890188449</v>
       </c>
       <c r="C36" t="n">
         <v>0.01798437279024729</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001518185892377396</v>
+        <v>0.001590403888362808</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01849344019922704</v>
+        <v>0.01888999446313452</v>
       </c>
       <c r="C37" t="n">
         <v>0.01788311760511572</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0006103225941113226</v>
+        <v>-0.001006876858018802</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01911307012239137</v>
+        <v>0.0195216471237708</v>
       </c>
       <c r="C39" t="n">
         <v>0.01743582835670874</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001677241765682638</v>
+        <v>-0.002085818767062066</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01924235786210876</v>
+        <v>0.01965569001353505</v>
       </c>
       <c r="C40" t="n">
         <v>0.01737037600156841</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.001871981860540349</v>
+        <v>-0.00228531401196664</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01780999021948824</v>
+        <v>0.01819069469587863</v>
       </c>
       <c r="C42" t="n">
         <v>0.01730866157931768</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0005013286401705612</v>
+        <v>-0.0008820331165609492</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,17 +7143,17 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01756885733329184</v>
+        <v>0.01690033624078266</v>
       </c>
       <c r="C43" t="n">
         <v>0.01720805111218376</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.000360806221108078</v>
+        <v>0.0003077148714010942</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02078545632728807</v>
+        <v>0.02016329485543038</v>
       </c>
       <c r="C48" t="n">
         <v>0.016939745962924</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.003845710364364065</v>
+        <v>-0.003223548892506378</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02038033989980288</v>
+        <v>0.02081742052572747</v>
       </c>
       <c r="C49" t="n">
         <v>0.01690203549084444</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.003478304408958442</v>
+        <v>-0.003915385034883031</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01916219736871735</v>
+        <v>0.01957336256922211</v>
       </c>
       <c r="C51" t="n">
         <v>0.01684326695086256</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.002318930417854789</v>
+        <v>-0.002730095618359546</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0153000709362571</v>
+        <v>0.01449621854879912</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0153000709362571</v>
+        <v>-0.01449621854879912</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01877529778203213</v>
+        <v>0.01917584501199604</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01877529778203213</v>
+        <v>-0.01917584501199604</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01731110751832139</v>
+        <v>0.01768228178654905</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01731110751832139</v>
+        <v>-0.01768228178654905</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02502173464794561</v>
+        <v>0.02556297131031458</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02502173464794561</v>
+        <v>-0.02556297131031458</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02077165597007774</v>
+        <v>0.02121774875292909</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02077165597007774</v>
+        <v>-0.02121774875292909</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01709788369108303</v>
+        <v>0.01746200801971959</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01709788369108303</v>
+        <v>-0.01746200801971959</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01822269387674712</v>
+        <v>0.01753148278290896</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01822269387674712</v>
+        <v>-0.01753148278290896</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01718151397866441</v>
+        <v>0.01656182248786389</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01718151397866441</v>
+        <v>-0.01656182248786389</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01635304743278534</v>
+        <v>0.01670218654117871</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01635304743278534</v>
+        <v>-0.01670218654117871</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
